--- a/TestData/DynamicTableData.xlsx
+++ b/TestData/DynamicTableData.xlsx
@@ -12,81 +12,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Disk</t>
+  </si>
+  <si>
     <t>Network</t>
   </si>
   <si>
     <t>Memory</t>
   </si>
   <si>
-    <t>Disk</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>0.5 MB/s</t>
+  </si>
+  <si>
+    <t>9.6 Mbps</t>
+  </si>
+  <si>
+    <t>18.2 MB</t>
+  </si>
+  <si>
+    <t>6.4%</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>0.9 MB/s</t>
+  </si>
+  <si>
+    <t>1.9 Mbps</t>
+  </si>
+  <si>
+    <t>40.2 MB</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
     <t>Internet Explorer</t>
   </si>
   <si>
-    <t>0.3 Mbps</t>
-  </si>
-  <si>
-    <t>31.1 MB</t>
-  </si>
-  <si>
-    <t>0.7 MB/s</t>
-  </si>
-  <si>
-    <t>6.5%</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>0.1 Mbps</t>
-  </si>
-  <si>
-    <t>48.8 MB</t>
-  </si>
-  <si>
-    <t>0.4 MB/s</t>
-  </si>
-  <si>
-    <t>3.9%</t>
-  </si>
-  <si>
-    <t>Chrome</t>
+    <t>0.8 MB/s</t>
   </si>
   <si>
     <t>6.5 Mbps</t>
   </si>
   <si>
-    <t>89.6 MB</t>
-  </si>
-  <si>
-    <t>0.8 MB/s</t>
-  </si>
-  <si>
-    <t>1.9%</t>
+    <t>71.9 MB</t>
+  </si>
+  <si>
+    <t>6.8%</t>
   </si>
   <si>
     <t>Firefox</t>
   </si>
   <si>
-    <t>5.4 Mbps</t>
-  </si>
-  <si>
-    <t>51.8 MB</t>
-  </si>
-  <si>
-    <t>0.9 MB/s</t>
-  </si>
-  <si>
-    <t>8.4%</t>
+    <t>5 Mbps</t>
+  </si>
+  <si>
+    <t>71.1 MB</t>
+  </si>
+  <si>
+    <t>4.4%</t>
   </si>
 </sst>
 </file>
@@ -210,16 +207,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DynamicTableData.xlsx
+++ b/TestData/DynamicTableData.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="WebTable" r:id="rId3" sheetId="1"/>
+    <sheet name="WebTable" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr fullPrecision="1" calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="21">
   <si>
     <t>Name</t>
   </si>
@@ -41,9 +43,6 @@
     <t>18.2 MB</t>
   </si>
   <si>
-    <t>6.4%</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
@@ -56,9 +55,6 @@
     <t>40.2 MB</t>
   </si>
   <si>
-    <t>0.3%</t>
-  </si>
-  <si>
     <t>Internet Explorer</t>
   </si>
   <si>
@@ -71,9 +67,6 @@
     <t>71.9 MB</t>
   </si>
   <si>
-    <t>6.8%</t>
-  </si>
-  <si>
     <t>Firefox</t>
   </si>
   <si>
@@ -81,31 +74,51 @@
   </si>
   <si>
     <t>71.1 MB</t>
-  </si>
-  <si>
-    <t>4.4%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="5">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,109 +130,150 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="8">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="WebTableLockedColumnStyle" xfId="20"/>
+    <cellStyle name="WebTableUnLockedColumnStyle" xfId="21"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView topLeftCell="A1" view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" s="1">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" s="1">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="E4" s="1">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>23</v>
+      <c r="E5" s="1">
+        <v>0.044</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
 </worksheet>
 </file>
--- a/TestData/DynamicTableData.xlsx
+++ b/TestData/DynamicTableData.xlsx
@@ -12,81 +12,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Memory</t>
+  </si>
+  <si>
     <t>CPU</t>
   </si>
   <si>
-    <t>Memory</t>
-  </si>
-  <si>
     <t>Disk</t>
   </si>
   <si>
     <t>Network</t>
   </si>
   <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>18.1 MB</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>0.2 MB/s</t>
+  </si>
+  <si>
+    <t>5.5 Mbps</t>
+  </si>
+  <si>
     <t>Internet Explorer</t>
   </si>
   <si>
-    <t>4.6%</t>
-  </si>
-  <si>
-    <t>67.8 MB</t>
+    <t>72.8 MB</t>
+  </si>
+  <si>
+    <t>8.9%</t>
+  </si>
+  <si>
+    <t>0.8 MB/s</t>
+  </si>
+  <si>
+    <t>8.2 Mbps</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>86.7 MB</t>
+  </si>
+  <si>
+    <t>0.7 MB/s</t>
+  </si>
+  <si>
+    <t>3.8 Mbps</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>24.5 MB</t>
+  </si>
+  <si>
+    <t>4.2%</t>
   </si>
   <si>
     <t>0.6 MB/s</t>
   </si>
   <si>
-    <t>0 Mbps</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>6.6%</t>
-  </si>
-  <si>
-    <t>73.7 MB</t>
-  </si>
-  <si>
-    <t>0.7 MB/s</t>
-  </si>
-  <si>
-    <t>4.3 Mbps</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>1.2%</t>
-  </si>
-  <si>
-    <t>93.3 MB</t>
-  </si>
-  <si>
-    <t>0.3 MB/s</t>
-  </si>
-  <si>
-    <t>2 Mbps</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>2.7%</t>
-  </si>
-  <si>
-    <t>44.4 MB</t>
-  </si>
-  <si>
-    <t>0.2 MB/s</t>
-  </si>
-  <si>
-    <t>9 Mbps</t>
+    <t>4.4 Mbps</t>
   </si>
 </sst>
 </file>
@@ -196,30 +193,30 @@
         <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
